--- a/DirectTest_Simulation.xlsx
+++ b/DirectTest_Simulation.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="27">
   <si>
     <t>RR</t>
   </si>
@@ -60,12 +60,6 @@
   </si>
   <si>
     <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Total Cost</t>
-  </si>
-  <si>
-    <t>Avg. Cost Per Unit</t>
   </si>
   <si>
     <t>Total Wealth</t>
@@ -1824,7 +1818,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1841,14 +1835,12 @@
     <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -1894,14 +1886,8 @@
       <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -1942,16 +1928,10 @@
         <v>120000</v>
       </c>
       <c r="N2" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O2" s="1">
-        <v>120000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1989,19 +1969,13 @@
         <v>0</v>
       </c>
       <c r="M3" s="1">
-        <v>120000</v>
+        <v>116727.7091</v>
       </c>
       <c r="N3" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O3" s="1">
-        <v>116727.7091</v>
-      </c>
-      <c r="P3" s="1">
         <v>-3272.2909</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2039,19 +2013,13 @@
         <v>0</v>
       </c>
       <c r="M4" s="1">
-        <v>120000</v>
+        <v>115082.2295</v>
       </c>
       <c r="N4" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O4" s="1">
-        <v>115082.2295</v>
-      </c>
-      <c r="P4" s="1">
         <v>-4917.7705</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2089,19 +2057,13 @@
         <v>0</v>
       </c>
       <c r="M5" s="1">
-        <v>120000</v>
+        <v>115076.8957</v>
       </c>
       <c r="N5" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O5" s="1">
-        <v>115076.8957</v>
-      </c>
-      <c r="P5" s="1">
         <v>-4923.1043</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2139,19 +2101,13 @@
         <v>0</v>
       </c>
       <c r="M6" s="1">
-        <v>120000</v>
+        <v>131128.9892</v>
       </c>
       <c r="N6" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O6" s="1">
-        <v>131128.9892</v>
-      </c>
-      <c r="P6" s="1">
         <v>11128.9892</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2189,19 +2145,13 @@
         <v>0</v>
       </c>
       <c r="M7" s="1">
-        <v>120000</v>
+        <v>149455.9516</v>
       </c>
       <c r="N7" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O7" s="1">
-        <v>149455.9516</v>
-      </c>
-      <c r="P7" s="1">
         <v>29455.9516</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2239,19 +2189,13 @@
         <v>0</v>
       </c>
       <c r="M8" s="1">
-        <v>120000</v>
+        <v>159342.1637</v>
       </c>
       <c r="N8" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O8" s="1">
-        <v>159342.1637</v>
-      </c>
-      <c r="P8" s="1">
         <v>39342.1637</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2289,19 +2233,13 @@
         <v>0</v>
       </c>
       <c r="M9" s="1">
-        <v>120000</v>
+        <v>166414.7924</v>
       </c>
       <c r="N9" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O9" s="1">
-        <v>166414.7924</v>
-      </c>
-      <c r="P9" s="1">
         <v>46414.7924</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2339,19 +2277,13 @@
         <v>0</v>
       </c>
       <c r="M10" s="1">
-        <v>120000</v>
+        <v>174215.4858</v>
       </c>
       <c r="N10" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O10" s="1">
-        <v>174215.4858</v>
-      </c>
-      <c r="P10" s="1">
         <v>54215.4858</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2389,19 +2321,13 @@
         <v>0</v>
       </c>
       <c r="M11" s="1">
-        <v>120000</v>
+        <v>191235.6654</v>
       </c>
       <c r="N11" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O11" s="1">
-        <v>191235.6654</v>
-      </c>
-      <c r="P11" s="1">
         <v>71235.6654</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2439,19 +2365,13 @@
         <v>0</v>
       </c>
       <c r="M12" s="1">
-        <v>120000</v>
+        <v>182746.9108</v>
       </c>
       <c r="N12" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O12" s="1">
-        <v>182746.9108</v>
-      </c>
-      <c r="P12" s="1">
         <v>62746.9108</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2489,19 +2409,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>120000</v>
+        <v>183768.335</v>
       </c>
       <c r="N13" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O13" s="1">
-        <v>183768.335</v>
-      </c>
-      <c r="P13" s="1">
         <v>63768.335</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2539,18 +2453,12 @@
         <v>195894.7462</v>
       </c>
       <c r="M14" s="1">
-        <v>-75894.74619999999</v>
+        <v>195894.7462</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>195894.7462</v>
-      </c>
-      <c r="P14" s="1">
         <v>75894.74619999999</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="O14" s="3">
         <v>0.6325</v>
       </c>
     </row>
@@ -2561,7 +2469,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2578,14 +2486,12 @@
     <col min="10" max="10" width="10.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="7.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="7.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2631,14 +2537,8 @@
       <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2676,19 +2576,13 @@
         <v>110000</v>
       </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="N2" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O2" s="1">
-        <v>120000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2726,19 +2620,13 @@
         <v>100000</v>
       </c>
       <c r="M3" s="1">
-        <v>20000</v>
+        <v>119727.3091</v>
       </c>
       <c r="N3" s="1">
-        <v>443.7402</v>
-      </c>
-      <c r="O3" s="1">
-        <v>119727.3091</v>
-      </c>
-      <c r="P3" s="1">
         <v>-272.6909</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2776,19 +2664,13 @@
         <v>90000</v>
       </c>
       <c r="M4" s="1">
-        <v>30000</v>
+        <v>119449.2184</v>
       </c>
       <c r="N4" s="1">
-        <v>439.5906</v>
-      </c>
-      <c r="O4" s="1">
-        <v>119449.2184</v>
-      </c>
-      <c r="P4" s="1">
         <v>-550.7816</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2826,19 +2708,13 @@
         <v>80000</v>
       </c>
       <c r="M5" s="1">
-        <v>40000</v>
+        <v>119447.8535</v>
       </c>
       <c r="N5" s="1">
-        <v>437.5396</v>
-      </c>
-      <c r="O5" s="1">
-        <v>119447.8535</v>
-      </c>
-      <c r="P5" s="1">
         <v>-552.1464999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2876,19 +2752,13 @@
         <v>70000</v>
       </c>
       <c r="M6" s="1">
-        <v>50000</v>
+        <v>124950.4406</v>
       </c>
       <c r="N6" s="1">
-        <v>447.394</v>
-      </c>
-      <c r="O6" s="1">
-        <v>124950.4406</v>
-      </c>
-      <c r="P6" s="1">
         <v>4950.4406</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2926,19 +2796,13 @@
         <v>60000</v>
       </c>
       <c r="M7" s="1">
-        <v>60000</v>
+        <v>132630.4712</v>
       </c>
       <c r="N7" s="1">
-        <v>462.9545</v>
-      </c>
-      <c r="O7" s="1">
-        <v>132630.4712</v>
-      </c>
-      <c r="P7" s="1">
         <v>12630.4712</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2976,19 +2840,13 @@
         <v>50000</v>
       </c>
       <c r="M8" s="1">
-        <v>70000</v>
+        <v>137434.8316</v>
       </c>
       <c r="N8" s="1">
-        <v>478.3403</v>
-      </c>
-      <c r="O8" s="1">
-        <v>137434.8316</v>
-      </c>
-      <c r="P8" s="1">
         <v>17434.8316</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3026,19 +2884,13 @@
         <v>40000</v>
       </c>
       <c r="M9" s="1">
-        <v>80000</v>
+        <v>141315.751</v>
       </c>
       <c r="N9" s="1">
-        <v>492.7171</v>
-      </c>
-      <c r="O9" s="1">
-        <v>141315.751</v>
-      </c>
-      <c r="P9" s="1">
         <v>21315.751</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3076,19 +2928,13 @@
         <v>30000</v>
       </c>
       <c r="M10" s="1">
-        <v>90000</v>
+        <v>146064.9268</v>
       </c>
       <c r="N10" s="1">
-        <v>506.5484</v>
-      </c>
-      <c r="O10" s="1">
-        <v>146064.9268</v>
-      </c>
-      <c r="P10" s="1">
         <v>26064.9268</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3126,19 +2972,13 @@
         <v>20000</v>
       </c>
       <c r="M11" s="1">
-        <v>100000</v>
+        <v>157404.0215</v>
       </c>
       <c r="N11" s="1">
-        <v>521.8697</v>
-      </c>
-      <c r="O11" s="1">
-        <v>157404.0215</v>
-      </c>
-      <c r="P11" s="1">
         <v>37404.0215</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3176,19 +3016,13 @@
         <v>10000</v>
       </c>
       <c r="M12" s="1">
-        <v>110000</v>
+        <v>151304.7983</v>
       </c>
       <c r="N12" s="1">
-        <v>533.4313</v>
-      </c>
-      <c r="O12" s="1">
-        <v>151304.7983</v>
-      </c>
-      <c r="P12" s="1">
         <v>31304.7983</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3226,19 +3060,13 @@
         <v>0</v>
       </c>
       <c r="M13" s="1">
-        <v>120000</v>
+        <v>152094.5907</v>
       </c>
       <c r="N13" s="1">
-        <v>543.6643</v>
-      </c>
-      <c r="O13" s="1">
-        <v>152094.5907</v>
-      </c>
-      <c r="P13" s="1">
         <v>32094.5907</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -3276,18 +3104,12 @@
         <v>162130.9311</v>
       </c>
       <c r="M14" s="1">
-        <v>-42130.9311</v>
+        <v>162130.9311</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>162130.9311</v>
-      </c>
-      <c r="P14" s="1">
         <v>42130.9311</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="O14" s="3">
         <v>0.7054</v>
       </c>
     </row>
@@ -3298,7 +3120,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3315,14 +3137,12 @@
     <col min="10" max="10" width="11.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="15.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="6.7109375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="6.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:15">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -3368,14 +3188,8 @@
       <c r="O1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17">
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3413,19 +3227,13 @@
         <v>110000</v>
       </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>120000</v>
       </c>
       <c r="N2" s="1">
-        <v>449.96</v>
-      </c>
-      <c r="O2" s="1">
-        <v>120000</v>
-      </c>
-      <c r="P2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3463,19 +3271,13 @@
         <v>99727.3091</v>
       </c>
       <c r="M3" s="1">
-        <v>20272.6909</v>
+        <v>119727.3091</v>
       </c>
       <c r="N3" s="1">
-        <v>443.6577</v>
-      </c>
-      <c r="O3" s="1">
-        <v>119727.3091</v>
-      </c>
-      <c r="P3" s="1">
         <v>-272.6909</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:15">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3513,19 +3315,13 @@
         <v>89445.3744</v>
       </c>
       <c r="M4" s="1">
-        <v>30554.6256</v>
+        <v>119445.3744</v>
       </c>
       <c r="N4" s="1">
-        <v>439.4977</v>
-      </c>
-      <c r="O4" s="1">
-        <v>119445.3744</v>
-      </c>
-      <c r="P4" s="1">
         <v>-554.6256</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:15">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3563,19 +3359,13 @@
         <v>79443.984</v>
       </c>
       <c r="M5" s="1">
-        <v>40556.016</v>
+        <v>119443.984</v>
       </c>
       <c r="N5" s="1">
-        <v>437.498</v>
-      </c>
-      <c r="O5" s="1">
-        <v>119443.984</v>
-      </c>
-      <c r="P5" s="1">
         <v>-556.016</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:15">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3613,19 +3403,13 @@
         <v>75023.59</v>
       </c>
       <c r="M6" s="1">
-        <v>44976.41</v>
+        <v>125023.59</v>
       </c>
       <c r="N6" s="1">
-        <v>442.289</v>
-      </c>
-      <c r="O6" s="1">
-        <v>125023.59</v>
-      </c>
-      <c r="P6" s="1">
         <v>5023.59</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:15">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3663,19 +3447,13 @@
         <v>72011.7329</v>
       </c>
       <c r="M7" s="1">
-        <v>47988.2671</v>
+        <v>132011.7329</v>
       </c>
       <c r="N7" s="1">
-        <v>448.2184</v>
-      </c>
-      <c r="O7" s="1">
-        <v>132011.7329</v>
-      </c>
-      <c r="P7" s="1">
         <v>12011.7329</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:15">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3713,19 +3491,13 @@
         <v>65980.6128</v>
       </c>
       <c r="M8" s="1">
-        <v>54019.3872</v>
+        <v>135980.6128</v>
       </c>
       <c r="N8" s="1">
-        <v>461.0786</v>
-      </c>
-      <c r="O8" s="1">
-        <v>135980.6128</v>
-      </c>
-      <c r="P8" s="1">
         <v>15980.6128</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:15">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3763,19 +3535,13 @@
         <v>59087.6625</v>
       </c>
       <c r="M9" s="1">
-        <v>60912.3375</v>
+        <v>139087.6625</v>
       </c>
       <c r="N9" s="1">
-        <v>475.1162</v>
-      </c>
-      <c r="O9" s="1">
-        <v>139087.6625</v>
-      </c>
-      <c r="P9" s="1">
         <v>19087.6625</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:15">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -3813,19 +3579,13 @@
         <v>52837.6625</v>
       </c>
       <c r="M10" s="1">
-        <v>67162.33749999999</v>
+        <v>142837.6625</v>
       </c>
       <c r="N10" s="1">
-        <v>487.4866</v>
-      </c>
-      <c r="O10" s="1">
-        <v>142837.6625</v>
-      </c>
-      <c r="P10" s="1">
         <v>22837.6625</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:15">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -3863,19 +3623,13 @@
         <v>51630.3146</v>
       </c>
       <c r="M11" s="1">
-        <v>68369.6854</v>
+        <v>151630.3146</v>
       </c>
       <c r="N11" s="1">
-        <v>490.2585</v>
-      </c>
-      <c r="O11" s="1">
-        <v>151630.3146</v>
-      </c>
-      <c r="P11" s="1">
         <v>31630.3146</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:15">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3913,19 +3667,13 @@
         <v>37191.4174</v>
       </c>
       <c r="M12" s="1">
-        <v>82808.58259999999</v>
+        <v>147191.4174</v>
       </c>
       <c r="N12" s="1">
-        <v>515.8523</v>
-      </c>
-      <c r="O12" s="1">
-        <v>147191.4174</v>
-      </c>
-      <c r="P12" s="1">
         <v>27191.4174</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:15">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -3963,19 +3711,13 @@
         <v>27806.2385</v>
       </c>
       <c r="M13" s="1">
-        <v>92193.76149999999</v>
+        <v>147806.2385</v>
       </c>
       <c r="N13" s="1">
-        <v>529.3996</v>
-      </c>
-      <c r="O13" s="1">
-        <v>147806.2385</v>
-      </c>
-      <c r="P13" s="1">
         <v>27806.2385</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:15">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -4013,18 +3755,12 @@
         <v>155724.7373</v>
       </c>
       <c r="M14" s="1">
-        <v>-35724.7373</v>
+        <v>155724.7373</v>
       </c>
       <c r="N14" s="1">
-        <v>0</v>
-      </c>
-      <c r="O14" s="1">
-        <v>155724.7373</v>
-      </c>
-      <c r="P14" s="1">
         <v>35724.7373</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="O14" s="3">
         <v>0.745</v>
       </c>
     </row>
@@ -4053,31 +3789,31 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -4222,7 +3958,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="1">
         <v>1563.88</v>
@@ -4240,13 +3976,13 @@
         <v>0.8139</v>
       </c>
       <c r="G12" s="3">
-        <v>0.1632</v>
+        <v>0.1327</v>
       </c>
       <c r="H12" s="3">
-        <v>0.1376</v>
+        <v>0.1021</v>
       </c>
       <c r="I12" s="3">
-        <v>0.1484</v>
+        <v>0.1124</v>
       </c>
     </row>
   </sheetData>
